--- a/biology/Botanique/Schlossberg_(grand_cru)/Schlossberg_(grand_cru).xlsx
+++ b/biology/Botanique/Schlossberg_(grand_cru)/Schlossberg_(grand_cru).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'alsace grand cru schlossberg[N 1], ou plus simplement schlossberg, est un vin blanc français produit sur le lieu-dit le Schlossberg, situé sur la commune de Kaysersberg Vignoble (anciennement Kientzheim), dans le département du Haut-Rhin, en Alsace.
-Il s'agit d'un des cinquante-et-un grands crus du vignoble d'Alsace, bénéficiant chacun d'une appellation mais partageant le même cahier des charges alsace grand cru[4] (avec des contraintes plus rigoureuses que pour l'appellation alsace). Son sol granitique est principalement planté avec du riesling.
+Il s'agit d'un des cinquante-et-un grands crus du vignoble d'Alsace, bénéficiant chacun d'une appellation mais partageant le même cahier des charges alsace grand cru (avec des contraintes plus rigoureuses que pour l'appellation alsace). Son sol granitique est principalement planté avec du riesling.
 </t>
         </is>
       </c>
@@ -513,14 +525,14 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1928, les vignerons s'accordent par écrit sur des contraintes de récolte[5].
-L'appellation alsace grand cru est créée par le décret du 20 novembre 1975[1], avec un seul lieu-dit en bénéficiant : le Schlossberg. Ce cru est rejoint d'abord par vingt-quatre autres crus en 1983, puis vingt-cinq autres en 1992 et enfin un cinquante-et-unième en 2007.
-Il y a eu depuis quelques modifications : le décret du 1er mars 1984[6] règlemente les mentions vendanges tardives et sélection de grains nobles au sein de l'appellation et le décret du 24 janvier 2001[7] réduit les rendements et donne la possibilité de modifier le cahier des charges de chaque dénomination (chaque cru) après avis du syndicat viticole local.
-En octobre 2011, tous les grands crus d'Alsace passent du statut de dénominations géographiques au sein d'une même appellation à celle d'appellations partageant le même cahier des charges[4].
-Étymologie
-Le toponyme Schlossberg signifie en allemand la « colline du château », en référence au château de Kaysersberg.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1928, les vignerons s'accordent par écrit sur des contraintes de récolte.
+L'appellation alsace grand cru est créée par le décret du 20 novembre 1975, avec un seul lieu-dit en bénéficiant : le Schlossberg. Ce cru est rejoint d'abord par vingt-quatre autres crus en 1983, puis vingt-cinq autres en 1992 et enfin un cinquante-et-unième en 2007.
+Il y a eu depuis quelques modifications : le décret du 1er mars 1984 règlemente les mentions vendanges tardives et sélection de grains nobles au sein de l'appellation et le décret du 24 janvier 2001 réduit les rendements et donne la possibilité de modifier le cahier des charges de chaque dénomination (chaque cru) après avis du syndicat viticole local.
+En octobre 2011, tous les grands crus d'Alsace passent du statut de dénominations géographiques au sein d'une même appellation à celle d'appellations partageant le même cahier des charges.
 </t>
         </is>
       </c>
@@ -546,20 +558,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Situation géographique</t>
+          <t>Histoire</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le schlossberg est produit en France, dans la région Alsace, plus précisément dans le département du Haut-Rhin, sur la commune de Kaysersberg Vignoble (sur l'ancienne commune de Kientzheim avant 2016), à 10 kilomètres au nord-ouest de Colmar.
-Sur la route des vins d'Alsace, le Schlossberg se trouve entre le Furstentum à l'est (ce cru jouxtant le Schlossberg et se trouvant en partie sur Kientzheim) et le Kaefferkopf au sud.
-Géologie
-Les vignes poussent sur des sols composés d'arène granitique[3] : ces terres sablo-limoneuses sont un peu acides. Le bas du coteau est recouvert d'épais alluvions. Le sous-sol est composé de granite prophyroblastique hétérogène (c'est-à-dire comprenant des enclaves de biotite, d'amphibole incolore et de pyroxène calcique) appelé granite migmatitique de Kaysersberg[8],[9].
-Climatologie
-À l'ouest, les Vosges protègent le coteau du vent et de la pluie. Les vents d'ouest dominants perdent leur humidité sur le versant occidental des Vosges et parviennent en Alsace sous forme de foehn, secs et chauds. Les précipitations sont donc particulièrement faibles.
-De ce fait, le climat est bien plus sec (Colmar est la station la plus sèche de France) et un peu plus chaud (avec une température annuelle moyenne plus haute de 1,5 °C) que ce qui serait attendu à cette latitude. Le climat est continental et sec avec des printemps chauds, des étés secs et ensoleillés, de longs automnes et des hivers froids.
-La station météo de la base de Colmar-Meyenheim (207 mètres) est la plus proche de Kientzheim, mais elle est en plaine. Ses valeurs climatiques de 1961 à 1990 sont :
-Source : www.infoclimat.fr : Colmar-Meyenheim (1961-1990)[2]
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le toponyme Schlossberg signifie en allemand la « colline du château », en référence au château de Kaysersberg.
 </t>
         </is>
       </c>
@@ -585,16 +595,167 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Situation géographique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le schlossberg est produit en France, dans la région Alsace, plus précisément dans le département du Haut-Rhin, sur la commune de Kaysersberg Vignoble (sur l'ancienne commune de Kientzheim avant 2016), à 10 kilomètres au nord-ouest de Colmar.
+Sur la route des vins d'Alsace, le Schlossberg se trouve entre le Furstentum à l'est (ce cru jouxtant le Schlossberg et se trouvant en partie sur Kientzheim) et le Kaefferkopf au sud.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Schlossberg_(grand_cru)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Schlossberg_(grand_cru)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Situation géographique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Géologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les vignes poussent sur des sols composés d'arène granitique : ces terres sablo-limoneuses sont un peu acides. Le bas du coteau est recouvert d'épais alluvions. Le sous-sol est composé de granite prophyroblastique hétérogène (c'est-à-dire comprenant des enclaves de biotite, d'amphibole incolore et de pyroxène calcique) appelé granite migmatitique de Kaysersberg,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Schlossberg_(grand_cru)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Schlossberg_(grand_cru)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Situation géographique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Climatologie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À l'ouest, les Vosges protègent le coteau du vent et de la pluie. Les vents d'ouest dominants perdent leur humidité sur le versant occidental des Vosges et parviennent en Alsace sous forme de foehn, secs et chauds. Les précipitations sont donc particulièrement faibles.
+De ce fait, le climat est bien plus sec (Colmar est la station la plus sèche de France) et un peu plus chaud (avec une température annuelle moyenne plus haute de 1,5 °C) que ce qui serait attendu à cette latitude. Le climat est continental et sec avec des printemps chauds, des étés secs et ensoleillés, de longs automnes et des hivers froids.
+La station météo de la base de Colmar-Meyenheim (207 mètres) est la plus proche de Kientzheim, mais elle est en plaine. Ses valeurs climatiques de 1961 à 1990 sont :
+Source : www.infoclimat.fr : Colmar-Meyenheim (1961-1990)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Schlossberg_(grand_cru)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Schlossberg_(grand_cru)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Vignoble</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Présentation
-L'essentiel des parcelles de vigne sont à flanc de coteau, entre 230 et 350 mètres d'altitude, sur des pentes fortes exposées au sud et au sud-est. Ce versant de la colline du Bixkoepfel surplombe Kaysersberg, Kientzheim et la vallée de la Weiss. Les vignes grimpent de l'agglomération de Kientzheim jusqu'au château de Kaysersberg et à la forêt de Kientzheim, en partie plantées sur des terrasses retenues par des murs de soutènement. 
-Quelques parcelles comprises dans l'aire d'appellation se situent sur un versant donnant vers l'est, sur le Kirrenburg, au nord du vallon du Streibach. L'aire plantée totale est de 80,28 hectares[10].
-Encépagement
-Les vins correspondant à l'appellation d'origine contrôlée alsace grand cru suivie de la dénomination géographique (nom de lieu-dit) Schlossberg doivent être produits avec un des cépages suivants : riesling B[N 2], pinot gris G, gewurztraminer Rs ou un des muscats (muscat ottonel B, muscat blanc à petits grains B ou muscat rose à petits grains Rs). Le Schlossberg est principalement planté avec du riesling à hauteur de 76 %, complété par 13 % de gewurztraminer, 10 % de pinot gris et 1 % de muscat[5].
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Présentation</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'essentiel des parcelles de vigne sont à flanc de coteau, entre 230 et 350 mètres d'altitude, sur des pentes fortes exposées au sud et au sud-est. Ce versant de la colline du Bixkoepfel surplombe Kaysersberg, Kientzheim et la vallée de la Weiss. Les vignes grimpent de l'agglomération de Kientzheim jusqu'au château de Kaysersberg et à la forêt de Kientzheim, en partie plantées sur des terrasses retenues par des murs de soutènement. 
+Quelques parcelles comprises dans l'aire d'appellation se situent sur un versant donnant vers l'est, sur le Kirrenburg, au nord du vallon du Streibach. L'aire plantée totale est de 80,28 hectares.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Schlossberg_(grand_cru)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Schlossberg_(grand_cru)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Encépagement</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les vins correspondant à l'appellation d'origine contrôlée alsace grand cru suivie de la dénomination géographique (nom de lieu-dit) Schlossberg doivent être produits avec un des cépages suivants : riesling B[N 2], pinot gris G, gewurztraminer Rs ou un des muscats (muscat ottonel B, muscat blanc à petits grains B ou muscat rose à petits grains Rs). Le Schlossberg est principalement planté avec du riesling à hauteur de 76 %, complété par 13 % de gewurztraminer, 10 % de pinot gris et 1 % de muscat.
 Le riesling B est le principal cépage cultivé sur le Schlossberg. C'est un cépage au débourrement et à la maturation tardives, nécessitant des coteaux bien exposés au soleil, dont les vendanges peuvent avoir lieu vers la mi-octobre. Par contre, il résiste bien aux gelées d'hiver.
 Le gewurztraminer Rs (signifie « traminer aromatique » en allemand) est un cépage rose aux baies orange ou tirant vers le violet. Ce proche parent du savagnin B et du savagnin rose Rs (appelé en Alsace klevener de Heiligenstein) est plutôt vigoureux, produit de gros rendements et donne de meilleurs résultats sur des sols marneux ou calcaires que sur des sols granitiques ou schisteux.
 Le pinot gris G (appelé Grauburgunder, « bourguignon gris » en allemand, « malvoisie » en Valais ou pinot grigio en Italie) est un cépage fragile et de maturité assez précoce. Il est issu d’une mutation du pinot noir et est donc d’origine bourguignonne, où il est appelé « pinot beurot ». Il donne de meilleurs résultats sur des sols composés de cailloutis calcaires à condition d'être bien drainés grâce à une exposition en coteau.
@@ -605,91 +766,276 @@
 			Grappes de gewurztraminer Rs.
 			Grappes de pinot gris G.
 			Grappes de muscat blanc à petits grains B.
-Pratiques culturales
-Les vignes sont conduites en hautain pour les protéger du gel, avec le feuillage palissé en espalier ; la hauteur de feuillage palissé ne peut être inférieure à 0,675 fois l'écartement entre les rangs.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Schlossberg_(grand_cru)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Schlossberg_(grand_cru)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Pratiques culturales</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les vignes sont conduites en hautain pour les protéger du gel, avec le feuillage palissé en espalier ; la hauteur de feuillage palissé ne peut être inférieure à 0,675 fois l'écartement entre les rangs.
 La taille de la vigne doit se faire en guyot simple ou double avec un maximum de dix yeux par mètre carré de surface au sol pour le cépage gewurztraminer Rs et huit yeux par mètre carré de surface au sol pour les autres cépages.
-La charge maximale moyenne à la parcelle est fixée à 10 000 kilogrammes de raisin par hectare[4].
-Rendements
-La limite de rendement de l'ensemble de l'appellation alsace grand cru est fixée à 55 hectolitres par hectare, avec un rendement butoir à 66 hectolitres par hectare[4], ce qui est très inférieur aux 80 hectolitres autorisés par l'appellation alsace.
+La charge maximale moyenne à la parcelle est fixée à 10 000 kilogrammes de raisin par hectare.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Schlossberg_(grand_cru)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Schlossberg_(grand_cru)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Rendements</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La limite de rendement de l'ensemble de l'appellation alsace grand cru est fixée à 55 hectolitres par hectare, avec un rendement butoir à 66 hectolitres par hectare, ce qui est très inférieur aux 80 hectolitres autorisés par l'appellation alsace.
 Le rendement réel de l'ensemble de l'appellation (les 51 crus alsaciens) est de 50 hectolitres par hectare en moyenne pour l'année 2009[N 3]. Bien que ce soit très en dessous des rendements moyens du vignoble d'Alsace, il s'agit d'un rendement dans la moyenne française.
 Les grands crus d'Alsace doivent être obligatoirement vendangés à la main.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Schlossberg_(grand_cru)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Schlossberg_(grand_cru)</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Schlossberg_(grand_cru)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Schlossberg_(grand_cru)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Vins</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Titres alcoométriques
-Les raisins récoltés doivent présenter un titre alcoométrique volumique naturel moyen minimum de 12,5 % vol. pour les cépages pinot gris G et gewurztraminer Rs et de 11 % vol. pour le riesling B[N 2] et les muscats. Les vins issus d'un assemblage présentent un titre alcoométrique volumique naturel moyen minimum de 12 % vol.
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Titres alcoométriques</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les raisins récoltés doivent présenter un titre alcoométrique volumique naturel moyen minimum de 12,5 % vol. pour les cépages pinot gris G et gewurztraminer Rs et de 11 % vol. pour le riesling B[N 2] et les muscats. Les vins issus d'un assemblage présentent un titre alcoométrique volumique naturel moyen minimum de 12 % vol.
 Ne peut être considéré à bonne maturité tout lot unitaire de vendanges présentant une richesse en sucre inférieure à 193 grammes par litre de moût pour les cépages pinot gris G et gewurztraminer Rs et à 168 grammes par litre de moût pour les autres cépages. Lorsqu'une autorisation d'enrichissement est accordée, l'augmentation du titre alcoométrique volumique naturel moyen minimum ne peut dépasser 1,5 % vol.
 Sur l'avis du syndicat des producteurs du cru, le comité régional d'experts des vins d'Alsace peut proposer annuellement au comité national des vins et eaux-de-vie de l'Institut national des appellations d'origine, pour la dénomination et pour chaque cépage, un titre alcoométrique naturel moyen minimum supérieur et une richesse en sucre des lots unitaires supérieure à ceux susvisés, ainsi qu'un taux d'enrichissement maximum inférieur au taux susvisé.
-Vendanges tardives et grains nobles
-Les vendanges tardives désignent des vins faits à partir de raisins dont la récolte a été retardée pour les obtenir en surmaturité, d'où des vins riches en sucre et en alcool, aux goûts plus puissants, et souvent moelleux. Selon la législation, le moût doit avoir au moins 243 grammes de sucre par litre si c'est du gewurztraminer ou du pinot gris (soit 14,4 % vol. d'alcool potentiel), ou au moins 220 grammes de sucre par litre si c'est du riesling ou un muscat (soit 13,1 % vol. d'alcool potentiel) ; aucune chaptalisation n'est permise.
-Quant à une sélection de grains nobles, il s'agit d'un vin fait à partir de raisins récoltés par tris sélectifs successifs des grains atteints de pourriture noble (le champignon Botrytis cinerea), ce qui donne des vins encore plus concentrés, plus sucrés, liquoreux. Selon la législation, le moût doit avoir au moins 279 grammes de sucre par litre si c'est du gewurztraminer ou du pinot gris (soit 16,6 % vol. d'alcool potentiel), ou au moins 256 grammes de sucre par litre si c'est du riesling ou un muscat (soit 15,2 % vol. d'alcool potentiel). Là-aussi aucune chaptalisation n'est permise[11],[12].
-Vinification et élevage
-Les grands crus d'Alsace doivent être obligatoirement récoltés manuellement.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Schlossberg_(grand_cru)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Schlossberg_(grand_cru)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Vins</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Vendanges tardives et grains nobles</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les vendanges tardives désignent des vins faits à partir de raisins dont la récolte a été retardée pour les obtenir en surmaturité, d'où des vins riches en sucre et en alcool, aux goûts plus puissants, et souvent moelleux. Selon la législation, le moût doit avoir au moins 243 grammes de sucre par litre si c'est du gewurztraminer ou du pinot gris (soit 14,4 % vol. d'alcool potentiel), ou au moins 220 grammes de sucre par litre si c'est du riesling ou un muscat (soit 13,1 % vol. d'alcool potentiel) ; aucune chaptalisation n'est permise.
+Quant à une sélection de grains nobles, il s'agit d'un vin fait à partir de raisins récoltés par tris sélectifs successifs des grains atteints de pourriture noble (le champignon Botrytis cinerea), ce qui donne des vins encore plus concentrés, plus sucrés, liquoreux. Selon la législation, le moût doit avoir au moins 279 grammes de sucre par litre si c'est du gewurztraminer ou du pinot gris (soit 16,6 % vol. d'alcool potentiel), ou au moins 256 grammes de sucre par litre si c'est du riesling ou un muscat (soit 15,2 % vol. d'alcool potentiel). Là-aussi aucune chaptalisation n'est permise,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Schlossberg_(grand_cru)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Schlossberg_(grand_cru)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Vins</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Vinification et élevage</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les grands crus d'Alsace doivent être obligatoirement récoltés manuellement.
 Le jour de la vendange, à l'arrivée au chai, le raisin est foulé et pressé pour séparer le moût du marc de raisin. Pour ce travail, les pressoirs pneumatiques remplacent progressivement les pressoirs horizontaux à plateau. Puis le moût est mis en cuve pour le débourbage, qui est le soutirage du jus sans les bourbes, soit par filtrage, soit par décantation en attendant qu'elles se déposent au fond de la cuve.
 La fermentation alcoolique débute sous l'action de levures indigènes ou de levures sélectionnées introduites lors du levurage : cette opération transforme le sucre du raisin en alcool. La maîtrise de la température de fermentation par un système de réfrigération permet d'exprimer le potentiel aromatique du produit.
 La fermentation achevée au bout d'un mois, le vin est soutiré afin d'éliminer les lies. La fermentation malolactique n'est généralement pas réalisée, bloquée par un sulfitage pour conserver son acidité au vin. Ce dernier peut être stocké en cuve pour le préparer à l'embouteillage ou élevé en barrique ou foudres de bois de chêne.
-Le vin est soutiré, puis généralement de nouveau filtré avant le conditionnement en bouteilles[13].
-Gastronomie</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Schlossberg_(grand_cru)</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Schlossberg_(grand_cru)</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+Le vin est soutiré, puis généralement de nouveau filtré avant le conditionnement en bouteilles.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Schlossberg_(grand_cru)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Schlossberg_(grand_cru)</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Économie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Type de bouteilles
-Les vins d'Alsace doivent être mis en bouteille uniquement dans des flûtes, c'est-à-dire des bouteilles du type « vin du Rhin » de 75 centilitres, règlementées par plusieurs décrets[14].
-Mentions
-Dans tout le vignoble d'Alsace, les vins sont le plus souvent identifiés par leur(s) cépage(s) : riesling, gewurztraminer, etc. Cette mention domine l'étiquette même si elle est facultative.
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Type de bouteilles</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les vins d'Alsace doivent être mis en bouteille uniquement dans des flûtes, c'est-à-dire des bouteilles du type « vin du Rhin » de 75 centilitres, règlementées par plusieurs décrets.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Schlossberg_(grand_cru)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Schlossberg_(grand_cru)</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Économie</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Mentions</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Dans tout le vignoble d'Alsace, les vins sont le plus souvent identifiés par leur(s) cépage(s) : riesling, gewurztraminer, etc. Cette mention domine l'étiquette même si elle est facultative.
 Lors de la création de l'appellation alsace grand cru, le but était clairement de valoriser le terroir. La mention du cépage n'y est pas obligatoire et il est possible de mettre le nom de la dénomination en caractères plus grands que celui du cépage.
 Donc plusieurs mentions sur l'étiquette de la bouteille sont possibles, soit simplement le nom de l'appellation et de la dénomination géographique (alsace grand cru Schlossberg), soit avec en plus une mention de cépage (riesling, pinot gris, gewurztraminer ou muscat), à laquelle peut être rajoutée la mention sélection de grains nobles ou vendanges tardives, ainsi que le nom d'un lieu-dit au sein de la dénomination :
 alsace grand cru Schlossberg ;
@@ -704,9 +1050,43 @@
 alsace grand cru Schlossberg sélection de grains nobles riesling ;
 alsace grand cru Schlossberg sélection de grains nobles gewurztraminer ;
 alsace grand cru Schlossberg sélection de grains nobles pinot gris ;
-alsace grand cru Schlossberg sélection de grains nobles muscat.
-Liste de producteurs
-Domaine Jean-Marc Bernhard
+alsace grand cru Schlossberg sélection de grains nobles muscat.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Schlossberg_(grand_cru)</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Schlossberg_(grand_cru)</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Économie</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Liste de producteurs</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Domaine Jean-Marc Bernhard
 Domaine Paul Blanck
 Domaine Bott-Geyl
 Domaine Albert Mann
